--- a/uploadtesting/Booktest.xlsx
+++ b/uploadtesting/Booktest.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjeve\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjeve\Documents\GitHub\Group-D-Period-2\uploadtesting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F6D0994C-0394-4BA1-9E6A-BC0CA3CE9FD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6F63ABE6-9FF0-4C0C-A3A3-98DF41453D10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3216" yWindow="1512" windowWidth="17280" windowHeight="8880" xr2:uid="{C3F85251-5E1D-48C1-ABA4-374651C713BD}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C3F85251-5E1D-48C1-ABA4-374651C713BD}"/>
   </bookViews>
   <sheets>
     <sheet name="Booktest" sheetId="1" r:id="rId1"/>
@@ -36,19 +36,19 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t>room_id</t>
+    <t>room_nr (x.xxx)</t>
   </si>
   <si>
-    <t>start_time</t>
+    <t>start_time (xx:xx)</t>
   </si>
   <si>
-    <t>end_time</t>
+    <t>end_time (xx:xx)</t>
   </si>
   <si>
-    <t>date</t>
+    <t>date (dd-mm-yyyy)</t>
   </si>
   <si>
-    <t>occupancy</t>
+    <t>occupancy (0 if N/A)</t>
   </si>
 </sst>
 </file>
@@ -84,10 +84,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -405,12 +406,16 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="4" max="4" width="17.109375" customWidth="1"/>
+    <col min="5" max="5" width="17.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -431,8 +436,8 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
+      <c r="A2" s="3">
+        <v>1001</v>
       </c>
       <c r="B2" s="1">
         <v>0.35416666666666669</v>
@@ -448,8 +453,8 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
+      <c r="A3" s="3">
+        <v>1002</v>
       </c>
       <c r="B3" s="1">
         <v>0.35416666666666669</v>
@@ -465,8 +470,8 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
+      <c r="A4" s="3">
+        <v>1003</v>
       </c>
       <c r="B4" s="1">
         <v>0.38541666666666669</v>
@@ -482,8 +487,8 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>2</v>
+      <c r="A5" s="3">
+        <v>1002</v>
       </c>
       <c r="B5" s="1">
         <v>0.38541666666666669</v>
